--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,51 +452,51 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>STE NORD 1</v>
+        <v>kamal lolo</v>
       </c>
       <c r="B3" t="str">
-        <v>35465</v>
+        <v>H2356889</v>
       </c>
       <c r="C3" t="str">
-        <v>464654564415474824354567</v>
+        <v>326556413565468543153468</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>casa 55</v>
       </c>
       <c r="E3" t="str">
         <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>455/RABAT 88</v>
+        <v>886/CASA SUD 1/AV1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K3">
-        <v>20000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>kamal lolo</v>
+        <v xml:space="preserve">samia nabil </v>
       </c>
       <c r="B4" t="str">
-        <v>H2356889</v>
+        <v>D5458486</v>
       </c>
       <c r="C4" t="str">
-        <v>326556413565468543153468</v>
+        <v>654865441654864784764156</v>
       </c>
       <c r="D4" t="str">
-        <v>casa 55</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <v>BP</v>
@@ -511,24 +511,24 @@
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K4">
-        <v>3600</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve">samia nabil </v>
+        <v>LATIFA LALA</v>
       </c>
       <c r="B5" t="str">
-        <v>D5458486</v>
+        <v>H3835832</v>
       </c>
       <c r="C5" t="str">
-        <v>654865441654864784764156</v>
+        <v>458756785157118455402253</v>
       </c>
       <c r="D5" t="str">
         <v/>
@@ -557,77 +557,42 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>LATIFA LALA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>H3835832</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>458756785157118455402253</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v>886/CASA SUD 1/AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="J6">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K6">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H7" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I7">
-        <v>35000</v>
-      </c>
-      <c r="J7">
-        <v>1500</v>
-      </c>
-      <c r="K7">
-        <v>33500</v>
+        <v>13500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,42 +417,182 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>MOHAMED ALMAKTOM</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>DE56468</v>
       </c>
       <c r="C2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>455456464656446465465646</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>MOQAWAMA</v>
       </c>
       <c r="E2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Siège</v>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>147/123456</v>
       </c>
       <c r="H2" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Ali expresse</v>
+      </c>
+      <c r="B3" t="str">
+        <v>545444</v>
+      </c>
+      <c r="C3" t="str">
+        <v>654866541016546545646544</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>bmci</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G3" t="str">
+        <v>966/PV TEST</v>
+      </c>
+      <c r="H3" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I3">
+        <v>320000.25</v>
+      </c>
+      <c r="J3">
+        <v>10201.64</v>
+      </c>
+      <c r="K3">
+        <v>309798.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Ali Benani</v>
+      </c>
+      <c r="B4" t="str">
+        <v>q666465</v>
+      </c>
+      <c r="C4" t="str">
+        <v>065446456487687687687867</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>cih</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Siège</v>
+      </c>
+      <c r="G4" t="str">
+        <v>096/TEST</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>45376.46</v>
+      </c>
+      <c r="J4">
+        <v>6806.47</v>
+      </c>
+      <c r="K4">
+        <v>38569.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Amine Mokhtar</v>
+      </c>
+      <c r="B5" t="str">
+        <v>aq46545</v>
+      </c>
+      <c r="C5" t="str">
+        <v>654654064645645466464465</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>bp</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Siège</v>
+      </c>
+      <c r="G5" t="str">
+        <v>096/TEST</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I5">
+        <v>14623.54</v>
+      </c>
+      <c r="J5">
+        <v>2193.53</v>
+      </c>
+      <c r="K5">
+        <v>12430.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I6">
+        <v>390000.25</v>
+      </c>
+      <c r="J6">
+        <v>20701.64</v>
+      </c>
+      <c r="K6">
+        <v>369298.61</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,182 +417,287 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MOHAMED ALMAKTOM</v>
+        <v>KAMILIA LALA</v>
       </c>
       <c r="B2" t="str">
-        <v>DE56468</v>
+        <v>D235689</v>
       </c>
       <c r="C2" t="str">
-        <v>455456464656446465465646</v>
+        <v>314564867486153468743615</v>
       </c>
       <c r="D2" t="str">
-        <v>MOQAWAMA</v>
+        <v>AG1</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Siège</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>147/123456</v>
+        <v>910/TANGER /AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="K2">
-        <v>8500</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ali expresse</v>
+        <v>ABDOU FAFA</v>
       </c>
       <c r="B3" t="str">
-        <v>545444</v>
+        <v>K3544354</v>
       </c>
       <c r="C3" t="str">
-        <v>654866541016546545646544</v>
+        <v>354548674643548674825458</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>bmci</v>
+        <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>966/PV TEST</v>
+        <v>910/TANGER /AV1</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>320000.25</v>
+        <v>13354.4</v>
       </c>
       <c r="J3">
-        <v>10201.64</v>
+        <v>2003.16</v>
       </c>
       <c r="K3">
-        <v>309798.61</v>
+        <v>11351.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ali Benani</v>
+        <v>SAMIR DADA</v>
       </c>
       <c r="B4" t="str">
-        <v>q666465</v>
+        <v>L254654</v>
       </c>
       <c r="C4" t="str">
-        <v>065446456487687687687867</v>
+        <v>365674864648774548676452</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>AGG</v>
       </c>
       <c r="E4" t="str">
-        <v>cih</v>
+        <v>NO</v>
       </c>
       <c r="F4" t="str">
-        <v>Siège</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G4" t="str">
-        <v>096/TEST</v>
+        <v>910/TANGER /AV1</v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>45376.46</v>
+        <v>2645.6</v>
       </c>
       <c r="J4">
-        <v>6806.47</v>
+        <v>264.56</v>
       </c>
       <c r="K4">
-        <v>38569.99</v>
+        <v>2381.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amine Mokhtar</v>
+        <v>MORAD JOJO</v>
       </c>
       <c r="B5" t="str">
-        <v>aq46545</v>
+        <v>L5245475</v>
       </c>
       <c r="C5" t="str">
-        <v>654654064645645466464465</v>
+        <v>245354564354676745346547</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>AG55</v>
       </c>
       <c r="E5" t="str">
-        <v>bp</v>
+        <v>BP</v>
       </c>
       <c r="F5" t="str">
-        <v>Siège</v>
+        <v>Point de vente</v>
       </c>
       <c r="G5" t="str">
-        <v>096/TEST</v>
+        <v>115/TANGER MED/AV1</v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>14623.54</v>
+        <v>15000</v>
       </c>
       <c r="J5">
-        <v>2193.53</v>
+        <v>1500</v>
       </c>
       <c r="K5">
-        <v>12430.01</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>KHALID RARA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>L525655</v>
+      </c>
+      <c r="C6" t="str">
+        <v>354647646468746878635467</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G6" t="str">
+        <v>115/TANGER MED/AV1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I6">
+        <v>6000</v>
+      </c>
+      <c r="J6">
+        <v>600</v>
+      </c>
+      <c r="K6">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>KARIMA SASA</v>
+      </c>
+      <c r="B7" t="str">
+        <v>K324554</v>
+      </c>
+      <c r="C7" t="str">
+        <v>365468748754574875641534</v>
+      </c>
+      <c r="D7" t="str">
+        <v>AGGTT</v>
+      </c>
+      <c r="E7" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G7" t="str">
+        <v>844/T-SUD</v>
+      </c>
+      <c r="H7" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I7">
+        <v>24000</v>
+      </c>
+      <c r="J7">
+        <v>3600</v>
+      </c>
+      <c r="K7">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>FARIDA VAVA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>IL12254</v>
+      </c>
+      <c r="C8" t="str">
+        <v>354687867354697865354548</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>BP</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Point de vente</v>
+      </c>
+      <c r="G8" t="str">
+        <v>844/T-SUD</v>
+      </c>
+      <c r="H8" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I8">
+        <v>6000</v>
+      </c>
+      <c r="J8">
+        <v>600</v>
+      </c>
+      <c r="K8">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B6" t="str">
+      <c r="B9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C6" t="str">
+      <c r="C9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" t="str">
+      <c r="D9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" t="str">
+      <c r="E9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F6" t="str">
+      <c r="F9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G6" t="str">
+      <c r="G9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H6" t="str">
+      <c r="H9" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I6">
-        <v>390000.25</v>
-      </c>
-      <c r="J6">
-        <v>20701.64</v>
-      </c>
-      <c r="K6">
-        <v>369298.61</v>
+      <c r="I9">
+        <v>91000</v>
+      </c>
+      <c r="J9">
+        <v>12167.720000000001</v>
+      </c>
+      <c r="K9">
+        <v>78832.28</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,287 +417,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KAMILIA LALA</v>
+        <v>ALI EXPRESSE</v>
       </c>
       <c r="B2" t="str">
-        <v>D235689</v>
+        <v>11986345</v>
       </c>
       <c r="C2" t="str">
-        <v>314564867486153468743615</v>
+        <v>114684354634563543243543</v>
       </c>
       <c r="D2" t="str">
-        <v>AG1</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>354354</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v>910/TANGER /AV1</v>
+        <v>001/LF/TEST DR/AV1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20400</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>ABDOU FAFA</v>
+        <v>TETS TESTS</v>
       </c>
       <c r="B3" t="str">
-        <v>K3544354</v>
+        <v>BG432432</v>
       </c>
       <c r="C3" t="str">
-        <v>354548674643548674825458</v>
+        <v>321321321312111111111111</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>11</v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v>111</v>
       </c>
       <c r="F3" t="str">
         <v>Direction régionale</v>
       </c>
       <c r="G3" t="str">
-        <v>910/TANGER /AV1</v>
+        <v>001/TEST DR</v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>13354.4</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>2003.16</v>
+        <v>3000</v>
       </c>
       <c r="K3">
-        <v>11351.24</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SAMIR DADA</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" t="str">
-        <v>L254654</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <v>365674864648774548676452</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>AGG</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>NO</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v>Direction régionale</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v>910/TANGER /AV1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4">
-        <v>2645.6</v>
+        <v>50000</v>
       </c>
       <c r="J4">
-        <v>264.56</v>
+        <v>3000</v>
       </c>
       <c r="K4">
-        <v>2381.04</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>MORAD JOJO</v>
-      </c>
-      <c r="B5" t="str">
-        <v>L5245475</v>
-      </c>
-      <c r="C5" t="str">
-        <v>245354564354676745346547</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AG55</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G5" t="str">
-        <v>115/TANGER MED/AV1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>15000</v>
-      </c>
-      <c r="J5">
-        <v>1500</v>
-      </c>
-      <c r="K5">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>KHALID RARA</v>
-      </c>
-      <c r="B6" t="str">
-        <v>L525655</v>
-      </c>
-      <c r="C6" t="str">
-        <v>354647646468746878635467</v>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G6" t="str">
-        <v>115/TANGER MED/AV1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I6">
-        <v>6000</v>
-      </c>
-      <c r="J6">
-        <v>600</v>
-      </c>
-      <c r="K6">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>KARIMA SASA</v>
-      </c>
-      <c r="B7" t="str">
-        <v>K324554</v>
-      </c>
-      <c r="C7" t="str">
-        <v>365468748754574875641534</v>
-      </c>
-      <c r="D7" t="str">
-        <v>AGGTT</v>
-      </c>
-      <c r="E7" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G7" t="str">
-        <v>844/T-SUD</v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>24000</v>
-      </c>
-      <c r="J7">
-        <v>3600</v>
-      </c>
-      <c r="K7">
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>FARIDA VAVA</v>
-      </c>
-      <c r="B8" t="str">
-        <v>IL12254</v>
-      </c>
-      <c r="C8" t="str">
-        <v>354687867354697865354548</v>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G8" t="str">
-        <v>844/T-SUD</v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>6000</v>
-      </c>
-      <c r="J8">
-        <v>600</v>
-      </c>
-      <c r="K8">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H9" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I9">
-        <v>91000</v>
-      </c>
-      <c r="J9">
-        <v>12167.720000000001</v>
-      </c>
-      <c r="K9">
-        <v>78832.28</v>
+        <v>47000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,13 +417,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MOURAD VAVA</v>
+        <v>SAMIRA TATA</v>
       </c>
       <c r="B2" t="str">
-        <v>LK354534</v>
+        <v>D524564</v>
       </c>
       <c r="C2" t="str">
-        <v>565696456548764134131431</v>
+        <v>335463513748543615567464</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -432,307 +432,167 @@
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Point de vente</v>
+        <v>Supervision</v>
       </c>
       <c r="G2" t="str">
-        <v>332/AG FES1</v>
+        <v>554/SUP FES 1</v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="J2">
-        <v>7200</v>
+        <v>6000</v>
       </c>
       <c r="K2">
-        <v>40800</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>MOURAD VAVA</v>
+        <v>NABIL KAMAL</v>
       </c>
       <c r="B3" t="str">
-        <v>LK354534</v>
+        <v>L3578354</v>
       </c>
       <c r="C3" t="str">
-        <v>565696456548764134131431</v>
+        <v>345534544587485743558673</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>AGG1</v>
       </c>
       <c r="E3" t="str">
         <v>BP</v>
       </c>
       <c r="F3" t="str">
-        <v>Point de vente</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v>332/AG FES1</v>
+        <v xml:space="preserve">044/LF/FES VILLE </v>
       </c>
       <c r="H3" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="J3">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="K3">
-        <v>29600</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>MERYEM RARA</v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="B4" t="str">
-        <v>L5453746</v>
+        <v>K5443645</v>
       </c>
       <c r="C4" t="str">
-        <v>136569764674769764567897</v>
+        <v>354564564324158786713544</v>
       </c>
       <c r="D4" t="str">
-        <v>CASA BB2</v>
+        <v>AG 100</v>
       </c>
       <c r="E4" t="str">
-        <v>BMCE</v>
+        <v>BP</v>
       </c>
       <c r="F4" t="str">
-        <v>Supervision</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G4" t="str">
-        <v>966/RABAT SUP1</v>
+        <v xml:space="preserve">044/FES VILLE </v>
       </c>
       <c r="H4" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I4">
-        <v>2400</v>
+        <v>60000</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K4">
-        <v>2400</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>LAILA JJJJ</v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="B5" t="str">
-        <v>KL254545</v>
+        <v>K5443645</v>
       </c>
       <c r="C5" t="str">
-        <v>546846468478674454687487</v>
+        <v>354564564324158786713544</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>AG 100</v>
       </c>
       <c r="E5" t="str">
         <v>BP</v>
       </c>
       <c r="F5" t="str">
-        <v>Supervision</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G5" t="str">
-        <v>966/RABAT SUP1</v>
+        <v xml:space="preserve">044/FES VILLE </v>
       </c>
       <c r="H5" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I5">
-        <v>3600</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>360</v>
+        <v>1500</v>
       </c>
       <c r="K5">
-        <v>3240</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve">SAMIA NARA </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" t="str">
-        <v>M6346854</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <v>654647646476856586746864</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve">BP </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>Supervision</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v>966/RABAT SUP1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="J6">
-        <v>600</v>
+        <v>22500</v>
       </c>
       <c r="K6">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>NADIA JJEE</v>
-      </c>
-      <c r="B7" t="str">
-        <v>K2574857</v>
-      </c>
-      <c r="C7" t="str">
-        <v>345684644354646431654653</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G7" t="str">
-        <v xml:space="preserve">222/RABAT </v>
-      </c>
-      <c r="H7" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I7">
-        <v>13333.33</v>
-      </c>
-      <c r="J7">
-        <v>2000</v>
-      </c>
-      <c r="K7">
-        <v>11333.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>MOUNIR NNNN</v>
-      </c>
-      <c r="B8" t="str">
-        <v>KL354654</v>
-      </c>
-      <c r="C8" t="str">
-        <v>354545646464313216546523</v>
-      </c>
-      <c r="D8" t="str">
-        <v>MLKPO5</v>
-      </c>
-      <c r="E8" t="str">
-        <v>BPP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve">222/RABAT </v>
-      </c>
-      <c r="H8" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I8">
-        <v>6666.67</v>
-      </c>
-      <c r="J8">
-        <v>666.67</v>
-      </c>
-      <c r="K8">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>KHADIJA LALA</v>
-      </c>
-      <c r="B9" t="str">
-        <v>K5443645</v>
-      </c>
-      <c r="C9" t="str">
-        <v>354564564324158786713544</v>
-      </c>
-      <c r="D9" t="str">
-        <v>AG 100</v>
-      </c>
-      <c r="E9" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Point de vente</v>
-      </c>
-      <c r="G9" t="str">
-        <v>800/PV FES 1</v>
-      </c>
-      <c r="H9" t="str">
-        <v>trimestrielle</v>
-      </c>
-      <c r="I9">
-        <v>35000</v>
-      </c>
-      <c r="J9">
-        <v>5250</v>
-      </c>
-      <c r="K9">
-        <v>29750</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H10" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I10">
-        <v>147000</v>
-      </c>
-      <c r="J10">
-        <v>18476.67</v>
-      </c>
-      <c r="K10">
-        <v>128523.33</v>
+        <v>157500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,182 +417,77 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SAMIRA TATA</v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="B2" t="str">
-        <v>D524564</v>
+        <v>K5443645</v>
       </c>
       <c r="C2" t="str">
-        <v>335463513748543615567464</v>
+        <v>354564564324158786713544</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>AG 100</v>
       </c>
       <c r="E2" t="str">
         <v>BP</v>
       </c>
       <c r="F2" t="str">
-        <v>Supervision</v>
+        <v>Direction régionale</v>
       </c>
       <c r="G2" t="str">
-        <v>554/SUP FES 1</v>
+        <v xml:space="preserve">044/FES VILLE </v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>44000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NABIL KAMAL</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" t="str">
-        <v>L3578354</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <v>345534544587485743558673</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" t="str">
-        <v>AGG1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>BP</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>Logement de fonction</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">044/LF/FES VILLE </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v>mensuelle</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="K3">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>KHADIJA LALA</v>
-      </c>
-      <c r="B4" t="str">
-        <v>K5443645</v>
-      </c>
-      <c r="C4" t="str">
-        <v>354564564324158786713544</v>
-      </c>
-      <c r="D4" t="str">
-        <v>AG 100</v>
-      </c>
-      <c r="E4" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G4" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
-      </c>
-      <c r="H4" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I4">
-        <v>60000</v>
-      </c>
-      <c r="J4">
-        <v>9000</v>
-      </c>
-      <c r="K4">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>KHADIJA LALA</v>
-      </c>
-      <c r="B5" t="str">
-        <v>K5443645</v>
-      </c>
-      <c r="C5" t="str">
-        <v>354564564324158786713544</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AG 100</v>
-      </c>
-      <c r="E5" t="str">
-        <v>BP</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Direction régionale</v>
-      </c>
-      <c r="G5" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
-      </c>
-      <c r="H5" t="str">
-        <v>mensuelle</v>
-      </c>
-      <c r="I5">
-        <v>20000</v>
-      </c>
-      <c r="J5">
-        <v>1500</v>
-      </c>
-      <c r="K5">
         <v>18500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6">
-        <v>180000</v>
-      </c>
-      <c r="J6">
-        <v>22500</v>
-      </c>
-      <c r="K6">
-        <v>157500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
+++ b/download/generated situation/état_des_virements_xlsx/état_des_virements_7_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,77 +417,147 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KHADIJA LALA</v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B2" t="str">
-        <v>K5443645</v>
+        <v>BJ36877</v>
       </c>
       <c r="C2" t="str">
-        <v>354564564324158786713544</v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D2" t="str">
-        <v>AG 100</v>
+        <v>AOURIR</v>
       </c>
       <c r="E2" t="str">
-        <v>BP</v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F2" t="str">
-        <v>Direction régionale</v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve">044/FES VILLE </v>
+        <v xml:space="preserve">901/LF/FES </v>
       </c>
       <c r="H2" t="str">
         <v>mensuelle</v>
       </c>
       <c r="I2">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K2">
-        <v>18500</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CHARIJI ABDELLAH</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BJ36877</v>
       </c>
       <c r="C3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00101211111292695000201732</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>AOURIR</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>BP CENTRE SUD</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>Logement de fonction</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">901/LF/FES </v>
       </c>
       <c r="H3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>mensuelle</v>
       </c>
       <c r="I3">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="J3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K3">
-        <v>18500</v>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ACHENGLI LAILA</v>
+      </c>
+      <c r="B4" t="str">
+        <v>J207703</v>
+      </c>
+      <c r="C4" t="str">
+        <v>00101211115087750001201090</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Ait souss</v>
+      </c>
+      <c r="E4" t="str">
+        <v>BP Centre Sud</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Direction régionale</v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve">901/FES </v>
+      </c>
+      <c r="H4" t="str">
+        <v>mensuelle</v>
+      </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I5">
+        <v>34000</v>
+      </c>
+      <c r="J5">
+        <v>2300</v>
+      </c>
+      <c r="K5">
+        <v>31700</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>